--- a/Code/Results/Cases/Case_3_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.89070492673561</v>
+        <v>13.43179426924891</v>
       </c>
       <c r="C2">
-        <v>12.2324177365861</v>
+        <v>13.58263742246801</v>
       </c>
       <c r="D2">
-        <v>4.393482439533313</v>
+        <v>4.305216562060667</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.00862936539366</v>
+        <v>21.62799262871058</v>
       </c>
       <c r="G2">
-        <v>21.13058606077528</v>
+        <v>24.30385587107391</v>
       </c>
       <c r="H2">
-        <v>7.999127352300405</v>
+        <v>13.06525759432081</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.849996736376954</v>
+        <v>10.97018820084291</v>
       </c>
       <c r="M2">
-        <v>11.59234983358825</v>
+        <v>14.53400870557473</v>
       </c>
       <c r="N2">
-        <v>11.99896294432167</v>
+        <v>17.57753040792734</v>
       </c>
       <c r="O2">
-        <v>13.14169924919201</v>
+        <v>19.30677323522859</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.63819014545528</v>
+        <v>12.95282786870661</v>
       </c>
       <c r="C3">
-        <v>11.99990242602678</v>
+        <v>13.51707341477304</v>
       </c>
       <c r="D3">
-        <v>4.216430460093193</v>
+        <v>4.240537990337661</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.472995783786</v>
+        <v>21.60826923625955</v>
       </c>
       <c r="G3">
-        <v>20.33953957620415</v>
+        <v>24.24783314586591</v>
       </c>
       <c r="H3">
-        <v>7.987895603742974</v>
+        <v>13.101836895945</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.780812700626164</v>
+        <v>10.98555186920003</v>
       </c>
       <c r="M3">
-        <v>11.06876060816866</v>
+        <v>14.44684330783758</v>
       </c>
       <c r="N3">
-        <v>12.12675228384824</v>
+        <v>17.62419582189658</v>
       </c>
       <c r="O3">
-        <v>12.95638010346827</v>
+        <v>19.34708917045494</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.82292555028022</v>
+        <v>12.65098184228637</v>
       </c>
       <c r="C4">
-        <v>11.85540965138581</v>
+        <v>13.47697032279141</v>
       </c>
       <c r="D4">
-        <v>4.103327992451609</v>
+        <v>4.199773831348776</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.1514408280648</v>
+        <v>21.60260451283415</v>
       </c>
       <c r="G4">
-        <v>19.86318258833387</v>
+        <v>24.22262260801078</v>
       </c>
       <c r="H4">
-        <v>7.986800568003191</v>
+        <v>13.12662761563202</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.741646398575202</v>
+        <v>10.99666218704592</v>
       </c>
       <c r="M4">
-        <v>10.73810300492116</v>
+        <v>14.39519580520319</v>
       </c>
       <c r="N4">
-        <v>12.20870957659215</v>
+        <v>17.65461644056258</v>
       </c>
       <c r="O4">
-        <v>12.85382214541294</v>
+        <v>19.37663375213185</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.47902598338316</v>
+        <v>12.52621218433989</v>
       </c>
       <c r="C5">
-        <v>11.79615148514112</v>
+        <v>13.46067447466043</v>
       </c>
       <c r="D5">
-        <v>4.056171540941405</v>
+        <v>4.182907914479742</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.02242905939795</v>
+        <v>21.60191941396169</v>
       </c>
       <c r="G5">
-        <v>19.6717144593399</v>
+        <v>24.21466646926865</v>
       </c>
       <c r="H5">
-        <v>7.987768015577624</v>
+        <v>13.13731566094686</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.726516816302927</v>
+        <v>11.00161160704275</v>
       </c>
       <c r="M5">
-        <v>10.6012337135494</v>
+        <v>14.37463649810155</v>
       </c>
       <c r="N5">
-        <v>12.2429774676872</v>
+        <v>17.66745846214614</v>
       </c>
       <c r="O5">
-        <v>12.81482108527862</v>
+        <v>19.38987527862455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42121527102558</v>
+        <v>12.50539347067348</v>
       </c>
       <c r="C6">
-        <v>11.78629073156712</v>
+        <v>13.45797159784239</v>
       </c>
       <c r="D6">
-        <v>4.048278067401615</v>
+        <v>4.180092292781135</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.00113436017367</v>
+        <v>21.60190374385432</v>
       </c>
       <c r="G6">
-        <v>19.64009037581823</v>
+        <v>24.21348546466941</v>
       </c>
       <c r="H6">
-        <v>7.988012705762855</v>
+        <v>13.13912575800396</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.724054655349357</v>
+        <v>11.00245893894096</v>
       </c>
       <c r="M6">
-        <v>10.57838425984883</v>
+        <v>14.37125255545913</v>
       </c>
       <c r="N6">
-        <v>12.24871990700874</v>
+        <v>17.66961779405719</v>
       </c>
       <c r="O6">
-        <v>12.80851251068655</v>
+        <v>19.39214652761123</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81833492899143</v>
+        <v>12.64930604215713</v>
       </c>
       <c r="C7">
-        <v>11.85461191981187</v>
+        <v>13.47675035271</v>
       </c>
       <c r="D7">
-        <v>4.102696287084162</v>
+        <v>4.199547387246223</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.1496924918294</v>
+        <v>21.6025886983255</v>
       </c>
       <c r="G7">
-        <v>19.86058924455573</v>
+        <v>24.22250591890934</v>
       </c>
       <c r="H7">
-        <v>7.986807951653087</v>
+        <v>13.12676938785424</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.741438995082534</v>
+        <v>10.99672722829356</v>
       </c>
       <c r="M7">
-        <v>10.73626547579778</v>
+        <v>14.39491653998716</v>
       </c>
       <c r="N7">
-        <v>12.2091682152883</v>
+        <v>17.65478782815362</v>
       </c>
       <c r="O7">
-        <v>12.85328490713101</v>
+        <v>19.37680746952815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.46839809452528</v>
+        <v>13.26836302228166</v>
       </c>
       <c r="C8">
-        <v>12.15263922498663</v>
+        <v>13.56000385974692</v>
       </c>
       <c r="D8">
-        <v>4.333367639287188</v>
+        <v>4.283139559332475</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.82253105700238</v>
+        <v>21.61985620218933</v>
       </c>
       <c r="G8">
-        <v>20.85606987267099</v>
+        <v>24.28263754312263</v>
       </c>
       <c r="H8">
-        <v>7.994023763287816</v>
+        <v>13.07738607718797</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.825453750897827</v>
+        <v>10.97513767124683</v>
       </c>
       <c r="M8">
-        <v>11.41382149715877</v>
+        <v>14.50357564203986</v>
       </c>
       <c r="N8">
-        <v>12.04229374487562</v>
+        <v>17.59325421828582</v>
       </c>
       <c r="O8">
-        <v>13.07545484995854</v>
+        <v>19.31967837776421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.33991460923383</v>
+        <v>14.4135026805117</v>
       </c>
       <c r="C9">
-        <v>12.72092650456544</v>
+        <v>13.72413323200471</v>
       </c>
       <c r="D9">
-        <v>4.749458275557854</v>
+        <v>4.438295802949426</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.19230827436739</v>
+        <v>21.70468235104631</v>
       </c>
       <c r="G9">
-        <v>22.86991139584178</v>
+        <v>24.47299391399171</v>
       </c>
       <c r="H9">
-        <v>8.056165720575668</v>
+        <v>12.99906112215563</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.016510270093979</v>
+        <v>10.9460965334259</v>
       </c>
       <c r="M9">
-        <v>12.6629896393791</v>
+        <v>14.73075241185754</v>
       </c>
       <c r="N9">
-        <v>11.74323965584862</v>
+        <v>17.48657703163726</v>
       </c>
       <c r="O9">
-        <v>13.6011452285559</v>
+        <v>19.245766299482</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23110486814547</v>
+        <v>15.20435978947502</v>
       </c>
       <c r="C10">
-        <v>13.12553335848961</v>
+        <v>13.84478117558084</v>
       </c>
       <c r="D10">
-        <v>5.031507846497768</v>
+        <v>4.546401939023961</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.21960581907591</v>
+        <v>21.79773904020828</v>
       </c>
       <c r="G10">
-        <v>24.37196772076275</v>
+        <v>24.65617382385413</v>
       </c>
       <c r="H10">
-        <v>8.133668444297808</v>
+        <v>12.95283067163931</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.172850207334128</v>
+        <v>10.93284943289858</v>
       </c>
       <c r="M10">
-        <v>13.71615649534583</v>
+        <v>14.90519736417835</v>
       </c>
       <c r="N10">
-        <v>11.54144373349413</v>
+        <v>17.41667882659701</v>
       </c>
       <c r="O10">
-        <v>14.04290724897392</v>
+        <v>19.21482747069713</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.0448098942535</v>
+        <v>15.551704935392</v>
       </c>
       <c r="C11">
-        <v>13.30620392911041</v>
+        <v>13.89957979596806</v>
       </c>
       <c r="D11">
-        <v>5.15443978910498</v>
+        <v>4.594197286489639</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.68968590818707</v>
+        <v>21.84664381446996</v>
       </c>
       <c r="G11">
-        <v>25.05751878494462</v>
+        <v>24.7486708966279</v>
       </c>
       <c r="H11">
-        <v>8.176365520822394</v>
+        <v>12.93426125951016</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.247403717440716</v>
+        <v>10.92857467028239</v>
       </c>
       <c r="M11">
-        <v>14.18329121071348</v>
+        <v>14.98595924269254</v>
       </c>
       <c r="N11">
-        <v>11.45372798439105</v>
+        <v>17.38671055536007</v>
       </c>
       <c r="O11">
-        <v>14.25592717370283</v>
+        <v>19.20584498540103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.34630331672115</v>
+        <v>15.68134625190217</v>
       </c>
       <c r="C12">
-        <v>13.3740869004331</v>
+        <v>13.92030977446887</v>
       </c>
       <c r="D12">
-        <v>5.200202389421165</v>
+        <v>4.612088918932745</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.86796020158107</v>
+        <v>21.86609685052719</v>
       </c>
       <c r="G12">
-        <v>25.31726328385644</v>
+        <v>24.78499031919815</v>
       </c>
       <c r="H12">
-        <v>8.193644279877962</v>
+        <v>12.92758375785051</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.276124287912131</v>
+        <v>10.92720722151697</v>
       </c>
       <c r="M12">
-        <v>14.35657402260721</v>
+        <v>15.01672353469107</v>
       </c>
       <c r="N12">
-        <v>11.42111873924465</v>
+        <v>17.37562456178423</v>
       </c>
       <c r="O12">
-        <v>14.33831727706391</v>
+        <v>19.20317656311027</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.28166556057423</v>
+        <v>15.65351129484574</v>
       </c>
       <c r="C13">
-        <v>13.35949149192928</v>
+        <v>13.91584628135872</v>
       </c>
       <c r="D13">
-        <v>5.190381915061845</v>
+        <v>4.608244993357223</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.82955574542242</v>
+        <v>21.86186595311964</v>
       </c>
       <c r="G13">
-        <v>25.26131895243443</v>
+        <v>24.77711122064018</v>
       </c>
       <c r="H13">
-        <v>8.189872984452537</v>
+        <v>12.92900611191339</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.269917144578206</v>
+        <v>10.92749055841647</v>
       </c>
       <c r="M13">
-        <v>14.31941455915363</v>
+        <v>15.01009015218619</v>
       </c>
       <c r="N13">
-        <v>11.42811439447829</v>
+        <v>17.37800047110341</v>
       </c>
       <c r="O13">
-        <v>14.32049661072405</v>
+        <v>19.20371864401328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.06974662717506</v>
+        <v>15.5624090512358</v>
       </c>
       <c r="C14">
-        <v>13.31179963659618</v>
+        <v>13.90128573697643</v>
       </c>
       <c r="D14">
-        <v>5.158220602079617</v>
+        <v>4.595673446698468</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.70434801447876</v>
+        <v>21.84822558149473</v>
       </c>
       <c r="G14">
-        <v>25.07888622627869</v>
+        <v>24.7516331640884</v>
       </c>
       <c r="H14">
-        <v>8.177764577503217</v>
+        <v>12.93370479377937</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.249756810357944</v>
+        <v>10.9284571361839</v>
       </c>
       <c r="M14">
-        <v>14.19761947918826</v>
+        <v>14.98848672072583</v>
       </c>
       <c r="N14">
-        <v>11.45103291881049</v>
+        <v>17.38579324987402</v>
       </c>
       <c r="O14">
-        <v>14.26267097365536</v>
+        <v>19.20561075792392</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.9390774704979</v>
+        <v>15.5063571812105</v>
       </c>
       <c r="C15">
-        <v>13.28251627162829</v>
+        <v>13.89236397531263</v>
       </c>
       <c r="D15">
-        <v>5.138417679644785</v>
+        <v>4.587945750487664</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.62768561012935</v>
+        <v>21.83999171546042</v>
       </c>
       <c r="G15">
-        <v>24.96715441275318</v>
+        <v>24.73619467279636</v>
       </c>
       <c r="H15">
-        <v>8.17049359146888</v>
+        <v>12.93662902860726</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.237471520927609</v>
+        <v>10.92908190367987</v>
       </c>
       <c r="M15">
-        <v>14.12254715966466</v>
+        <v>14.97527701737298</v>
       </c>
       <c r="N15">
-        <v>11.46515082971029</v>
+        <v>17.39060069782323</v>
       </c>
       <c r="O15">
-        <v>14.22747526944848</v>
+        <v>19.20686521507224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.17699482090433</v>
+        <v>15.18140078411658</v>
       </c>
       <c r="C16">
-        <v>13.11365394626625</v>
+        <v>13.84119749261062</v>
       </c>
       <c r="D16">
-        <v>5.023364353665823</v>
+        <v>4.543249832177326</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.18892882452317</v>
+        <v>21.7946743276058</v>
       </c>
       <c r="G16">
-        <v>24.32719435317119</v>
+        <v>24.65031128356888</v>
       </c>
       <c r="H16">
-        <v>8.131031302424061</v>
+        <v>12.95409378741049</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.168046639446038</v>
+        <v>10.93316399728494</v>
       </c>
       <c r="M16">
-        <v>13.68512114662013</v>
+        <v>14.89994591748896</v>
       </c>
       <c r="N16">
-        <v>11.54725994523261</v>
+        <v>17.41867406846748</v>
       </c>
       <c r="O16">
-        <v>14.02922779017061</v>
+        <v>19.21551704010553</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.69758884801206</v>
+        <v>14.97879068814776</v>
       </c>
       <c r="C17">
-        <v>13.00916107177917</v>
+        <v>13.80978049394006</v>
       </c>
       <c r="D17">
-        <v>4.951393882170745</v>
+        <v>4.515469935436144</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.92037282943384</v>
+        <v>21.76854946318313</v>
       </c>
       <c r="G17">
-        <v>23.93503705991582</v>
+        <v>24.59995541912848</v>
       </c>
       <c r="H17">
-        <v>8.108757441325219</v>
+        <v>12.96543851125359</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.126332789563492</v>
+        <v>10.93611644968125</v>
       </c>
       <c r="M17">
-        <v>13.41031001982442</v>
+        <v>14.85407822145727</v>
       </c>
       <c r="N17">
-        <v>11.59869010841683</v>
+        <v>17.43636410675873</v>
       </c>
       <c r="O17">
-        <v>13.91069224293707</v>
+        <v>19.22212952745387</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.41745645713053</v>
+        <v>14.86109108467789</v>
       </c>
       <c r="C18">
-        <v>12.94874326285104</v>
+        <v>13.79170282471196</v>
       </c>
       <c r="D18">
-        <v>4.909493322266735</v>
+        <v>4.49936201560028</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.76617281404689</v>
+        <v>21.7541425688648</v>
       </c>
       <c r="G18">
-        <v>23.70970005155126</v>
+        <v>24.57185667031643</v>
       </c>
       <c r="H18">
-        <v>8.096644153395417</v>
+        <v>12.97219531921685</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.102663622615013</v>
+        <v>10.93797951063955</v>
       </c>
       <c r="M18">
-        <v>13.24986089844877</v>
+        <v>14.82782992978572</v>
       </c>
       <c r="N18">
-        <v>11.62865429163929</v>
+        <v>17.44671111837852</v>
       </c>
       <c r="O18">
-        <v>13.84364979127719</v>
+        <v>19.22641209048679</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.32185243972944</v>
+        <v>14.82104358087754</v>
       </c>
       <c r="C19">
-        <v>12.9282339672674</v>
+        <v>13.78558102872807</v>
       </c>
       <c r="D19">
-        <v>4.895220319071757</v>
+        <v>4.493886151264719</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.71401337022048</v>
+        <v>21.74937135101252</v>
       </c>
       <c r="G19">
-        <v>23.63344897919443</v>
+        <v>24.56249214493127</v>
       </c>
       <c r="H19">
-        <v>8.092661435979478</v>
+        <v>12.97452282567169</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.094705360741489</v>
+        <v>10.93863864591145</v>
       </c>
       <c r="M19">
-        <v>13.19512510235802</v>
+        <v>14.81896627935859</v>
       </c>
       <c r="N19">
-        <v>11.63886485122934</v>
+        <v>17.45024402867048</v>
       </c>
       <c r="O19">
-        <v>13.82114573793466</v>
+        <v>19.22794436827681</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.74907640858159</v>
+        <v>15.00048011230276</v>
       </c>
       <c r="C20">
-        <v>13.02031759335171</v>
+        <v>13.8131257216733</v>
       </c>
       <c r="D20">
-        <v>4.9591076603965</v>
+        <v>4.518440635705705</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.94893452256129</v>
+        <v>21.77126646740973</v>
       </c>
       <c r="G20">
-        <v>23.97676138262459</v>
+        <v>24.6052265783877</v>
       </c>
       <c r="H20">
-        <v>8.111055989032218</v>
+        <v>12.96420687061705</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.130739849966503</v>
+        <v>10.93578509440008</v>
       </c>
       <c r="M20">
-        <v>13.43981077038879</v>
+        <v>14.8589472383824</v>
       </c>
       <c r="N20">
-        <v>11.59317551401063</v>
+        <v>17.43446315774467</v>
       </c>
       <c r="O20">
-        <v>13.92319303894546</v>
+        <v>19.22137601016429</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.13217202356361</v>
+        <v>15.58922007256312</v>
       </c>
       <c r="C21">
-        <v>13.32582270722935</v>
+        <v>13.90556316450417</v>
       </c>
       <c r="D21">
-        <v>5.167688688726271</v>
+        <v>4.599371710551385</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.74111831953832</v>
+        <v>21.85220684198858</v>
       </c>
       <c r="G21">
-        <v>25.13246860850344</v>
+        <v>24.75908181823003</v>
       </c>
       <c r="H21">
-        <v>8.181290663664175</v>
+        <v>12.93231505733618</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.25566516585632</v>
+        <v>10.92816641306121</v>
       </c>
       <c r="M21">
-        <v>14.23349139397174</v>
+        <v>14.99482741159809</v>
       </c>
       <c r="N21">
-        <v>11.44428455426606</v>
+        <v>17.38349720697262</v>
       </c>
       <c r="O21">
-        <v>14.27960907095985</v>
+        <v>19.20503509877306</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.99743841567404</v>
+        <v>15.96293541423297</v>
       </c>
       <c r="C22">
-        <v>13.52236198841259</v>
+        <v>13.96584944088234</v>
       </c>
       <c r="D22">
-        <v>5.299403766691311</v>
+        <v>4.651052123792156</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.26035406484286</v>
+        <v>21.91054303181662</v>
       </c>
       <c r="G22">
-        <v>25.8885512294101</v>
+        <v>24.86715668700552</v>
       </c>
       <c r="H22">
-        <v>8.23368231474171</v>
+        <v>12.91353739612285</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.340157489983419</v>
+        <v>10.92465168897465</v>
       </c>
       <c r="M22">
-        <v>14.73117615917967</v>
+        <v>15.08468127299906</v>
       </c>
       <c r="N22">
-        <v>11.35052361202824</v>
+        <v>17.35171685117855</v>
       </c>
       <c r="O22">
-        <v>14.52259018558419</v>
+        <v>19.19862822746504</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.53914610359404</v>
+        <v>15.76451977120753</v>
       </c>
       <c r="C23">
-        <v>13.41776561851991</v>
+        <v>13.93368807255841</v>
       </c>
       <c r="D23">
-        <v>5.229530881098646</v>
+        <v>4.623583003914294</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.98312972787387</v>
+        <v>21.87891453783375</v>
       </c>
       <c r="G23">
-        <v>25.48499818681482</v>
+        <v>24.8087960174416</v>
       </c>
       <c r="H23">
-        <v>8.205113243842435</v>
+        <v>12.92337026478439</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.294803640953641</v>
+        <v>10.92639375881871</v>
       </c>
       <c r="M23">
-        <v>14.46746614891956</v>
+        <v>15.03663553759586</v>
       </c>
       <c r="N23">
-        <v>11.40023377073054</v>
+        <v>17.36853894108884</v>
       </c>
       <c r="O23">
-        <v>14.39199180191084</v>
+        <v>19.20165655911723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.72581295200223</v>
+        <v>14.99067810422857</v>
       </c>
       <c r="C24">
-        <v>13.01527479623413</v>
+        <v>13.81161339218884</v>
       </c>
       <c r="D24">
-        <v>4.955621891438883</v>
+        <v>4.517098007830849</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.93602115915634</v>
+        <v>21.77003620064072</v>
       </c>
       <c r="G24">
-        <v>23.95789742996878</v>
+        <v>24.60284083300589</v>
       </c>
       <c r="H24">
-        <v>8.11001466248034</v>
+        <v>12.96476296469065</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.128746443650703</v>
+        <v>10.93593438408211</v>
       </c>
       <c r="M24">
-        <v>13.42648113485497</v>
+        <v>14.85674557530477</v>
       </c>
       <c r="N24">
-        <v>11.59566742923012</v>
+        <v>17.43532202610431</v>
       </c>
       <c r="O24">
-        <v>13.91753798583018</v>
+        <v>19.22171517725333</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.60173051144809</v>
+        <v>14.11202461665714</v>
       </c>
       <c r="C25">
-        <v>12.56924621118966</v>
+        <v>13.67968681929122</v>
       </c>
       <c r="D25">
-        <v>4.640952894443664</v>
+        <v>4.39731811893961</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.81740882934372</v>
+        <v>21.67630700112449</v>
       </c>
       <c r="G25">
-        <v>22.32016391108171</v>
+        <v>24.41381611829822</v>
       </c>
       <c r="H25">
-        <v>8.033943947259862</v>
+        <v>13.01826489542123</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.962009879650563</v>
+        <v>10.95253087981508</v>
       </c>
       <c r="M25">
-        <v>12.33441536084995</v>
+        <v>14.66789286167335</v>
       </c>
       <c r="N25">
-        <v>11.82105456988458</v>
+        <v>17.51394367043952</v>
       </c>
       <c r="O25">
-        <v>13.44919554729858</v>
+        <v>19.26166604865368</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.43179426924891</v>
+        <v>18.8907049267356</v>
       </c>
       <c r="C2">
-        <v>13.58263742246801</v>
+        <v>12.2324177365861</v>
       </c>
       <c r="D2">
-        <v>4.305216562060667</v>
+        <v>4.393482439533261</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.62799262871058</v>
+        <v>17.00862936539373</v>
       </c>
       <c r="G2">
-        <v>24.30385587107391</v>
+        <v>21.13058606077536</v>
       </c>
       <c r="H2">
-        <v>13.06525759432081</v>
+        <v>7.999127352300457</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.97018820084291</v>
+        <v>6.849996736376977</v>
       </c>
       <c r="M2">
-        <v>14.53400870557473</v>
+        <v>11.59234983358826</v>
       </c>
       <c r="N2">
-        <v>17.57753040792734</v>
+        <v>11.99896294432177</v>
       </c>
       <c r="O2">
-        <v>19.30677323522859</v>
+        <v>13.14169924919211</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.95282786870661</v>
+        <v>17.63819014545528</v>
       </c>
       <c r="C3">
-        <v>13.51707341477304</v>
+        <v>11.99990242602713</v>
       </c>
       <c r="D3">
-        <v>4.240537990337661</v>
+        <v>4.216430460093298</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.60826923625955</v>
+        <v>16.47299578378593</v>
       </c>
       <c r="G3">
-        <v>24.24783314586591</v>
+        <v>20.33953957620404</v>
       </c>
       <c r="H3">
-        <v>13.101836895945</v>
+        <v>7.987895603742968</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.98555186920003</v>
+        <v>6.780812700626187</v>
       </c>
       <c r="M3">
-        <v>14.44684330783758</v>
+        <v>11.06876060816868</v>
       </c>
       <c r="N3">
-        <v>17.62419582189658</v>
+        <v>12.12675228384824</v>
       </c>
       <c r="O3">
-        <v>19.34708917045494</v>
+        <v>12.95638010346821</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65098184228637</v>
+        <v>16.82292555028027</v>
       </c>
       <c r="C4">
-        <v>13.47697032279141</v>
+        <v>11.85540965138592</v>
       </c>
       <c r="D4">
-        <v>4.199773831348776</v>
+        <v>4.103327992451463</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.60260451283415</v>
+        <v>16.15144082806464</v>
       </c>
       <c r="G4">
-        <v>24.22262260801078</v>
+        <v>19.86318258833362</v>
       </c>
       <c r="H4">
-        <v>13.12662761563202</v>
+        <v>7.98680056800313</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.99666218704592</v>
+        <v>6.741646398575233</v>
       </c>
       <c r="M4">
-        <v>14.39519580520319</v>
+        <v>10.73810300492113</v>
       </c>
       <c r="N4">
-        <v>17.65461644056258</v>
+        <v>12.20870957659205</v>
       </c>
       <c r="O4">
-        <v>19.37663375213185</v>
+        <v>12.85382214541275</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.52621218433989</v>
+        <v>16.47902598338319</v>
       </c>
       <c r="C5">
-        <v>13.46067447466043</v>
+        <v>11.79615148514111</v>
       </c>
       <c r="D5">
-        <v>4.182907914479742</v>
+        <v>4.056171540941503</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.60191941396169</v>
+        <v>16.02242905939788</v>
       </c>
       <c r="G5">
-        <v>24.21466646926865</v>
+        <v>19.67171445933987</v>
       </c>
       <c r="H5">
-        <v>13.13731566094686</v>
+        <v>7.987768015577671</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.00161160704275</v>
+        <v>6.726516816302923</v>
       </c>
       <c r="M5">
-        <v>14.37463649810155</v>
+        <v>10.60123371354937</v>
       </c>
       <c r="N5">
-        <v>17.66745846214614</v>
+        <v>12.24297746768723</v>
       </c>
       <c r="O5">
-        <v>19.38987527862455</v>
+        <v>12.81482108527862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50539347067348</v>
+        <v>16.42121527102558</v>
       </c>
       <c r="C6">
-        <v>13.45797159784239</v>
+        <v>11.78629073156724</v>
       </c>
       <c r="D6">
-        <v>4.180092292781135</v>
+        <v>4.048278067401522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.60190374385432</v>
+        <v>16.0011343601737</v>
       </c>
       <c r="G6">
-        <v>24.21348546466941</v>
+        <v>19.64009037581825</v>
       </c>
       <c r="H6">
-        <v>13.13912575800396</v>
+        <v>7.988012705762848</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.00245893894096</v>
+        <v>6.724054655349383</v>
       </c>
       <c r="M6">
-        <v>14.37125255545913</v>
+        <v>10.57838425984886</v>
       </c>
       <c r="N6">
-        <v>17.66961779405719</v>
+        <v>12.24871990700877</v>
       </c>
       <c r="O6">
-        <v>19.39214652761123</v>
+        <v>12.80851251068654</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.64930604215713</v>
+        <v>16.8183349289914</v>
       </c>
       <c r="C7">
-        <v>13.47675035271</v>
+        <v>11.85461191981175</v>
       </c>
       <c r="D7">
-        <v>4.199547387246223</v>
+        <v>4.102696287084127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.6025886983255</v>
+        <v>16.14969249182949</v>
       </c>
       <c r="G7">
-        <v>24.22250591890934</v>
+        <v>19.86058924455587</v>
       </c>
       <c r="H7">
-        <v>13.12676938785424</v>
+        <v>7.986807951653143</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.99672722829356</v>
+        <v>6.741438995082582</v>
       </c>
       <c r="M7">
-        <v>14.39491653998716</v>
+        <v>10.73626547579782</v>
       </c>
       <c r="N7">
-        <v>17.65478782815362</v>
+        <v>12.20916821528837</v>
       </c>
       <c r="O7">
-        <v>19.37680746952815</v>
+        <v>12.85328490713112</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26836302228166</v>
+        <v>18.46839809452528</v>
       </c>
       <c r="C8">
-        <v>13.56000385974692</v>
+        <v>12.15263922498663</v>
       </c>
       <c r="D8">
-        <v>4.283139559332475</v>
+        <v>4.333367639287196</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.61985620218933</v>
+        <v>16.82253105700236</v>
       </c>
       <c r="G8">
-        <v>24.28263754312263</v>
+        <v>20.85606987267098</v>
       </c>
       <c r="H8">
-        <v>13.07738607718797</v>
+        <v>7.994023763287811</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.97513767124683</v>
+        <v>6.825453750897823</v>
       </c>
       <c r="M8">
-        <v>14.50357564203986</v>
+        <v>11.41382149715877</v>
       </c>
       <c r="N8">
-        <v>17.59325421828582</v>
+        <v>12.04229374487562</v>
       </c>
       <c r="O8">
-        <v>19.31967837776421</v>
+        <v>13.07545484995853</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.4135026805117</v>
+        <v>21.33991460923382</v>
       </c>
       <c r="C9">
-        <v>13.72413323200471</v>
+        <v>12.72092650456544</v>
       </c>
       <c r="D9">
-        <v>4.438295802949426</v>
+        <v>4.749458275557854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.70468235104631</v>
+        <v>18.19230827436737</v>
       </c>
       <c r="G9">
-        <v>24.47299391399171</v>
+        <v>22.86991139584176</v>
       </c>
       <c r="H9">
-        <v>12.99906112215563</v>
+        <v>8.056165720575658</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.9460965334259</v>
+        <v>7.016510270093981</v>
       </c>
       <c r="M9">
-        <v>14.73075241185754</v>
+        <v>12.66298963937911</v>
       </c>
       <c r="N9">
-        <v>17.48657703163726</v>
+        <v>11.74323965584863</v>
       </c>
       <c r="O9">
-        <v>19.245766299482</v>
+        <v>13.60114522855589</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.20435978947502</v>
+        <v>23.23110486814553</v>
       </c>
       <c r="C10">
-        <v>13.84478117558084</v>
+        <v>13.12553335848941</v>
       </c>
       <c r="D10">
-        <v>4.546401939023961</v>
+        <v>5.031507846497727</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.79773904020828</v>
+        <v>19.21960581907587</v>
       </c>
       <c r="G10">
-        <v>24.65617382385413</v>
+        <v>24.37196772076265</v>
       </c>
       <c r="H10">
-        <v>12.95283067163931</v>
+        <v>8.1336684442978</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.93284943289858</v>
+        <v>7.17285020733414</v>
       </c>
       <c r="M10">
-        <v>14.90519736417835</v>
+        <v>13.71615649534584</v>
       </c>
       <c r="N10">
-        <v>17.41667882659701</v>
+        <v>11.5414437334941</v>
       </c>
       <c r="O10">
-        <v>19.21482747069713</v>
+        <v>14.04290724897384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.551704935392</v>
+        <v>24.04480989425346</v>
       </c>
       <c r="C11">
-        <v>13.89957979596806</v>
+        <v>13.30620392911051</v>
       </c>
       <c r="D11">
-        <v>4.594197286489639</v>
+        <v>5.154439789104879</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.84664381446996</v>
+        <v>19.6896859081871</v>
       </c>
       <c r="G11">
-        <v>24.7486708966279</v>
+        <v>25.0575187849447</v>
       </c>
       <c r="H11">
-        <v>12.93426125951016</v>
+        <v>8.176365520822387</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.92857467028239</v>
+        <v>7.247403717440719</v>
       </c>
       <c r="M11">
-        <v>14.98595924269254</v>
+        <v>14.18329121071346</v>
       </c>
       <c r="N11">
-        <v>17.38671055536007</v>
+        <v>11.45372798439114</v>
       </c>
       <c r="O11">
-        <v>19.20584498540103</v>
+        <v>14.25592717370288</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.68134625190217</v>
+        <v>24.34630331672116</v>
       </c>
       <c r="C12">
-        <v>13.92030977446887</v>
+        <v>13.374086900433</v>
       </c>
       <c r="D12">
-        <v>4.612088918932745</v>
+        <v>5.200202389421268</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.86609685052719</v>
+        <v>19.86796020158107</v>
       </c>
       <c r="G12">
-        <v>24.78499031919815</v>
+        <v>25.31726328385646</v>
       </c>
       <c r="H12">
-        <v>12.92758375785051</v>
+        <v>8.193644279877962</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.92720722151697</v>
+        <v>7.276124287912089</v>
       </c>
       <c r="M12">
-        <v>15.01672353469107</v>
+        <v>14.35657402260724</v>
       </c>
       <c r="N12">
-        <v>17.37562456178423</v>
+        <v>11.42111873924462</v>
       </c>
       <c r="O12">
-        <v>19.20317656311027</v>
+        <v>14.33831727706391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.65351129484574</v>
+        <v>24.28166556057424</v>
       </c>
       <c r="C13">
-        <v>13.91584628135872</v>
+        <v>13.35949149192911</v>
       </c>
       <c r="D13">
-        <v>4.608244993357223</v>
+        <v>5.190381915061968</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.86186595311964</v>
+        <v>19.82955574542236</v>
       </c>
       <c r="G13">
-        <v>24.77711122064018</v>
+        <v>25.2613189524344</v>
       </c>
       <c r="H13">
-        <v>12.92900611191339</v>
+        <v>8.189872984452499</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.92749055841647</v>
+        <v>7.269917144578229</v>
       </c>
       <c r="M13">
-        <v>15.01009015218619</v>
+        <v>14.31941455915365</v>
       </c>
       <c r="N13">
-        <v>17.37800047110341</v>
+        <v>11.42811439447826</v>
       </c>
       <c r="O13">
-        <v>19.20371864401328</v>
+        <v>14.32049661072399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5624090512358</v>
+        <v>24.0697466271751</v>
       </c>
       <c r="C14">
-        <v>13.90128573697643</v>
+        <v>13.31179963659619</v>
       </c>
       <c r="D14">
-        <v>4.595673446698468</v>
+        <v>5.158220602079728</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.84822558149473</v>
+        <v>19.70434801447875</v>
       </c>
       <c r="G14">
-        <v>24.7516331640884</v>
+        <v>25.07888622627871</v>
       </c>
       <c r="H14">
-        <v>12.93370479377937</v>
+        <v>8.177764577503192</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.9284571361839</v>
+        <v>7.249756810357977</v>
       </c>
       <c r="M14">
-        <v>14.98848672072583</v>
+        <v>14.19761947918825</v>
       </c>
       <c r="N14">
-        <v>17.38579324987402</v>
+        <v>11.45103291881049</v>
       </c>
       <c r="O14">
-        <v>19.20561075792392</v>
+        <v>14.26267097365534</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5063571812105</v>
+        <v>23.93907747049785</v>
       </c>
       <c r="C15">
-        <v>13.89236397531263</v>
+        <v>13.28251627162855</v>
       </c>
       <c r="D15">
-        <v>4.587945750487664</v>
+        <v>5.138417679644896</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.83999171546042</v>
+        <v>19.62768561012929</v>
       </c>
       <c r="G15">
-        <v>24.73619467279636</v>
+        <v>24.9671544127531</v>
       </c>
       <c r="H15">
-        <v>12.93662902860726</v>
+        <v>8.170493591468917</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.92908190367987</v>
+        <v>7.237471520927611</v>
       </c>
       <c r="M15">
-        <v>14.97527701737298</v>
+        <v>14.12254715966465</v>
       </c>
       <c r="N15">
-        <v>17.39060069782323</v>
+        <v>11.4651508297103</v>
       </c>
       <c r="O15">
-        <v>19.20686521507224</v>
+        <v>14.22747526944846</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18140078411658</v>
+        <v>23.1769948209044</v>
       </c>
       <c r="C16">
-        <v>13.84119749261062</v>
+        <v>13.11365394626624</v>
       </c>
       <c r="D16">
-        <v>4.543249832177326</v>
+        <v>5.023364353665768</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.7946743276058</v>
+        <v>19.18892882452314</v>
       </c>
       <c r="G16">
-        <v>24.65031128356888</v>
+        <v>24.32719435317115</v>
       </c>
       <c r="H16">
-        <v>12.95409378741049</v>
+        <v>8.131031302424068</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.93316399728494</v>
+        <v>7.168046639446009</v>
       </c>
       <c r="M16">
-        <v>14.89994591748896</v>
+        <v>13.68512114662019</v>
       </c>
       <c r="N16">
-        <v>17.41867406846748</v>
+        <v>11.54725994523254</v>
       </c>
       <c r="O16">
-        <v>19.21551704010553</v>
+        <v>14.02922779017054</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.97879068814776</v>
+        <v>22.69758884801204</v>
       </c>
       <c r="C17">
-        <v>13.80978049394006</v>
+        <v>13.00916107177927</v>
       </c>
       <c r="D17">
-        <v>4.515469935436144</v>
+        <v>4.951393882170744</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.76854946318313</v>
+        <v>18.92037282943384</v>
       </c>
       <c r="G17">
-        <v>24.59995541912848</v>
+        <v>23.93503705991583</v>
       </c>
       <c r="H17">
-        <v>12.96543851125359</v>
+        <v>8.108757441325206</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.93611644968125</v>
+        <v>7.126332789563526</v>
       </c>
       <c r="M17">
-        <v>14.85407822145727</v>
+        <v>13.41031001982441</v>
       </c>
       <c r="N17">
-        <v>17.43636410675873</v>
+        <v>11.5986901084168</v>
       </c>
       <c r="O17">
-        <v>19.22212952745387</v>
+        <v>13.91069224293706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86109108467789</v>
+        <v>22.41745645713055</v>
       </c>
       <c r="C18">
-        <v>13.79170282471196</v>
+        <v>12.94874326285105</v>
       </c>
       <c r="D18">
-        <v>4.49936201560028</v>
+        <v>4.909493322266638</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.7541425688648</v>
+        <v>18.7661728140469</v>
       </c>
       <c r="G18">
-        <v>24.57185667031643</v>
+        <v>23.70970005155128</v>
       </c>
       <c r="H18">
-        <v>12.97219531921685</v>
+        <v>8.09664415339541</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.93797951063955</v>
+        <v>7.102663622615051</v>
       </c>
       <c r="M18">
-        <v>14.82782992978572</v>
+        <v>13.24986089844879</v>
       </c>
       <c r="N18">
-        <v>17.44671111837852</v>
+        <v>11.62865429163926</v>
       </c>
       <c r="O18">
-        <v>19.22641209048679</v>
+        <v>13.84364979127716</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.82104358087754</v>
+        <v>22.32185243972947</v>
       </c>
       <c r="C19">
-        <v>13.78558102872807</v>
+        <v>12.92823396726727</v>
       </c>
       <c r="D19">
-        <v>4.493886151264719</v>
+        <v>4.895220319071799</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.74937135101252</v>
+        <v>18.71401337022049</v>
       </c>
       <c r="G19">
-        <v>24.56249214493127</v>
+        <v>23.63344897919452</v>
       </c>
       <c r="H19">
-        <v>12.97452282567169</v>
+        <v>8.092661435979466</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.93863864591145</v>
+        <v>7.094705360741564</v>
       </c>
       <c r="M19">
-        <v>14.81896627935859</v>
+        <v>13.19512510235801</v>
       </c>
       <c r="N19">
-        <v>17.45024402867048</v>
+        <v>11.63886485122934</v>
       </c>
       <c r="O19">
-        <v>19.22794436827681</v>
+        <v>13.8211457379347</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00048011230276</v>
+        <v>22.74907640858158</v>
       </c>
       <c r="C20">
-        <v>13.8131257216733</v>
+        <v>13.02031759335192</v>
       </c>
       <c r="D20">
-        <v>4.518440635705705</v>
+        <v>4.959107660396514</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.77126646740973</v>
+        <v>18.94893452256131</v>
       </c>
       <c r="G20">
-        <v>24.6052265783877</v>
+        <v>23.97676138262462</v>
       </c>
       <c r="H20">
-        <v>12.96420687061705</v>
+        <v>8.111055989032213</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.93578509440008</v>
+        <v>7.130739849966523</v>
       </c>
       <c r="M20">
-        <v>14.8589472383824</v>
+        <v>13.43981077038878</v>
       </c>
       <c r="N20">
-        <v>17.43446315774467</v>
+        <v>11.59317551401062</v>
       </c>
       <c r="O20">
-        <v>19.22137601016429</v>
+        <v>13.9231930389455</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.58922007256312</v>
+        <v>24.13217202356367</v>
       </c>
       <c r="C21">
-        <v>13.90556316450417</v>
+        <v>13.32582270722926</v>
       </c>
       <c r="D21">
-        <v>4.599371710551385</v>
+        <v>5.167688688726326</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.85220684198858</v>
+        <v>19.74111831953828</v>
       </c>
       <c r="G21">
-        <v>24.75908181823003</v>
+        <v>25.13246860850346</v>
       </c>
       <c r="H21">
-        <v>12.93231505733618</v>
+        <v>8.181290663664127</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.92816641306121</v>
+        <v>7.255665165856342</v>
       </c>
       <c r="M21">
-        <v>14.99482741159809</v>
+        <v>14.23349139397176</v>
       </c>
       <c r="N21">
-        <v>17.38349720697262</v>
+        <v>11.44428455426606</v>
       </c>
       <c r="O21">
-        <v>19.20503509877306</v>
+        <v>14.27960907095982</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.96293541423297</v>
+        <v>24.997438415674</v>
       </c>
       <c r="C22">
-        <v>13.96584944088234</v>
+        <v>13.52236198841258</v>
       </c>
       <c r="D22">
-        <v>4.651052123792156</v>
+        <v>5.2994037666914</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.91054303181662</v>
+        <v>20.26035406484285</v>
       </c>
       <c r="G22">
-        <v>24.86715668700552</v>
+        <v>25.88855122941009</v>
       </c>
       <c r="H22">
-        <v>12.91353739612285</v>
+        <v>8.23368231474174</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.92465168897465</v>
+        <v>7.340157489983419</v>
       </c>
       <c r="M22">
-        <v>15.08468127299906</v>
+        <v>14.73117615917964</v>
       </c>
       <c r="N22">
-        <v>17.35171685117855</v>
+        <v>11.35052361202821</v>
       </c>
       <c r="O22">
-        <v>19.19862822746504</v>
+        <v>14.52259018558421</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.76451977120753</v>
+        <v>24.53914610359414</v>
       </c>
       <c r="C23">
-        <v>13.93368807255841</v>
+        <v>13.41776561851973</v>
       </c>
       <c r="D23">
-        <v>4.623583003914294</v>
+        <v>5.229530881098729</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.87891453783375</v>
+        <v>19.98312972787379</v>
       </c>
       <c r="G23">
-        <v>24.8087960174416</v>
+        <v>25.48499818681475</v>
       </c>
       <c r="H23">
-        <v>12.92337026478439</v>
+        <v>8.205113243842327</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.92639375881871</v>
+        <v>7.294803640953654</v>
       </c>
       <c r="M23">
-        <v>15.03663553759586</v>
+        <v>14.46746614891962</v>
       </c>
       <c r="N23">
-        <v>17.36853894108884</v>
+        <v>11.40023377073042</v>
       </c>
       <c r="O23">
-        <v>19.20165655911723</v>
+        <v>14.39199180191072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.99067810422857</v>
+        <v>22.72581295200223</v>
       </c>
       <c r="C24">
-        <v>13.81161339218884</v>
+        <v>13.01527479623403</v>
       </c>
       <c r="D24">
-        <v>4.517098007830849</v>
+        <v>4.955621891438877</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.77003620064072</v>
+        <v>18.93602115915634</v>
       </c>
       <c r="G24">
-        <v>24.60284083300589</v>
+        <v>23.95789742996881</v>
       </c>
       <c r="H24">
-        <v>12.96476296469065</v>
+        <v>8.11001466248034</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.93593438408211</v>
+        <v>7.12874644365071</v>
       </c>
       <c r="M24">
-        <v>14.85674557530477</v>
+        <v>13.42648113485497</v>
       </c>
       <c r="N24">
-        <v>17.43532202610431</v>
+        <v>11.59566742923012</v>
       </c>
       <c r="O24">
-        <v>19.22171517725333</v>
+        <v>13.91753798583023</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.11202461665714</v>
+        <v>20.60173051144812</v>
       </c>
       <c r="C25">
-        <v>13.67968681929122</v>
+        <v>12.56924621118954</v>
       </c>
       <c r="D25">
-        <v>4.39731811893961</v>
+        <v>4.640952894443714</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.67630700112449</v>
+        <v>17.81740882934369</v>
       </c>
       <c r="G25">
-        <v>24.41381611829822</v>
+        <v>22.32016391108177</v>
       </c>
       <c r="H25">
-        <v>13.01826489542123</v>
+        <v>8.033943947259777</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.95253087981508</v>
+        <v>6.962009879650561</v>
       </c>
       <c r="M25">
-        <v>14.66789286167335</v>
+        <v>12.33441536084995</v>
       </c>
       <c r="N25">
-        <v>17.51394367043952</v>
+        <v>11.82105456988455</v>
       </c>
       <c r="O25">
-        <v>19.26166604865368</v>
+        <v>13.44919554729857</v>
       </c>
     </row>
   </sheetData>
